--- a/data/XII-MIA-2.xlsx
+++ b/data/XII-MIA-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas Akhir\Development\New Develop\Aplikasi-Penilaian-Otomatis-Esai-BI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1621CA68-F4BF-4C26-ADEA-4DD681F8ED81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOAL-1-XII-MIA-2" sheetId="1" r:id="rId1"/>
@@ -378,7 +379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,7 +671,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -947,11 +948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,9 +1119,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="24"/>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
@@ -1133,9 +1132,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="25">
-        <v>0</v>
-      </c>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
@@ -1229,9 +1226,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="24"/>
-      <c r="E24" s="25">
-        <v>0</v>
-      </c>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
@@ -1244,9 +1239,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="24"/>
-      <c r="E25" s="25">
-        <v>0</v>
-      </c>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
@@ -1259,9 +1252,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="24"/>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
@@ -1325,9 +1316,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="24"/>
-      <c r="E30" s="25">
-        <v>0</v>
-      </c>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
@@ -1357,9 +1346,7 @@
         <v>60</v>
       </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="25">
-        <v>0</v>
-      </c>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
@@ -1389,9 +1376,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="24"/>
-      <c r="E34" s="25">
-        <v>0</v>
-      </c>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
@@ -1404,9 +1389,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="25">
-        <v>0</v>
-      </c>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
@@ -1419,9 +1402,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="24"/>
-      <c r="E36" s="25">
-        <v>0</v>
-      </c>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
@@ -1434,9 +1415,7 @@
         <v>71</v>
       </c>
       <c r="D37" s="24"/>
-      <c r="E37" s="25">
-        <v>0</v>
-      </c>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
@@ -1449,9 +1428,7 @@
         <v>73</v>
       </c>
       <c r="D38" s="24"/>
-      <c r="E38" s="25">
-        <v>0</v>
-      </c>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
@@ -1547,9 +1524,7 @@
         <v>89</v>
       </c>
       <c r="D44" s="28"/>
-      <c r="E44" s="29">
-        <v>0</v>
-      </c>
+      <c r="E44" s="29"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
@@ -1562,9 +1537,7 @@
         <v>91</v>
       </c>
       <c r="D45" s="28"/>
-      <c r="E45" s="29">
-        <v>0</v>
-      </c>
+      <c r="E45" s="29"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
@@ -1577,9 +1550,7 @@
         <v>93</v>
       </c>
       <c r="D46" s="28"/>
-      <c r="E46" s="29">
-        <v>0</v>
-      </c>
+      <c r="E46" s="29"/>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
@@ -1592,9 +1563,7 @@
         <v>95</v>
       </c>
       <c r="D47" s="28"/>
-      <c r="E47" s="29">
-        <v>0</v>
-      </c>
+      <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
@@ -1607,9 +1576,7 @@
         <v>97</v>
       </c>
       <c r="D48" s="28"/>
-      <c r="E48" s="29">
-        <v>0</v>
-      </c>
+      <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -1622,9 +1589,7 @@
         <v>99</v>
       </c>
       <c r="D49" s="28"/>
-      <c r="E49" s="29">
-        <v>0</v>
-      </c>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
@@ -1960,11 +1925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
